--- a/ksa_covid19.xlsx
+++ b/ksa_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalawami/Desktop/Learn Data Science/Projects/Saudi-Arabia-COVID-19-Dashboard-Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31979C41-4C22-9446-9EB2-153019E41EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A960A6-6A37-8A43-A57D-25392F8E0ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20680" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20660" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Changes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="94">
   <si>
     <t>City</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>Apr 19</t>
+  </si>
+  <si>
+    <t>Apr 20</t>
+  </si>
+  <si>
+    <t>حدة</t>
+  </si>
+  <si>
+    <t>المضة</t>
+  </si>
+  <si>
+    <t>سكاكا</t>
   </si>
   <si>
     <t>Apr 8</t>
@@ -661,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E669"/>
+  <dimension ref="A1:E739"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12040,6 +12052,1196 @@
         <v>83</v>
       </c>
     </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>7</v>
+      </c>
+      <c r="B670">
+        <v>2857</v>
+      </c>
+      <c r="C670">
+        <v>2472</v>
+      </c>
+      <c r="D670">
+        <v>345</v>
+      </c>
+      <c r="E670" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>5</v>
+      </c>
+      <c r="B671">
+        <v>2358</v>
+      </c>
+      <c r="C671">
+        <v>1762</v>
+      </c>
+      <c r="D671">
+        <v>590</v>
+      </c>
+      <c r="E671" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>9</v>
+      </c>
+      <c r="B672">
+        <v>2008</v>
+      </c>
+      <c r="C672">
+        <v>1944</v>
+      </c>
+      <c r="D672">
+        <v>32</v>
+      </c>
+      <c r="E672" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>8</v>
+      </c>
+      <c r="B673">
+        <v>1935</v>
+      </c>
+      <c r="C673">
+        <v>1679</v>
+      </c>
+      <c r="D673">
+        <v>237</v>
+      </c>
+      <c r="E673" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>11</v>
+      </c>
+      <c r="B674">
+        <v>764</v>
+      </c>
+      <c r="C674">
+        <v>678</v>
+      </c>
+      <c r="D674">
+        <v>85</v>
+      </c>
+      <c r="E674" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>13</v>
+      </c>
+      <c r="B675">
+        <v>533</v>
+      </c>
+      <c r="C675">
+        <v>507</v>
+      </c>
+      <c r="D675">
+        <v>23</v>
+      </c>
+      <c r="E675" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>10</v>
+      </c>
+      <c r="B676">
+        <v>198</v>
+      </c>
+      <c r="C676">
+        <v>73</v>
+      </c>
+      <c r="D676">
+        <v>124</v>
+      </c>
+      <c r="E676" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>14</v>
+      </c>
+      <c r="B677">
+        <v>147</v>
+      </c>
+      <c r="C677">
+        <v>131</v>
+      </c>
+      <c r="D677">
+        <v>16</v>
+      </c>
+      <c r="E677" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>12</v>
+      </c>
+      <c r="B678">
+        <v>138</v>
+      </c>
+      <c r="C678">
+        <v>128</v>
+      </c>
+      <c r="D678">
+        <v>9</v>
+      </c>
+      <c r="E678" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>30</v>
+      </c>
+      <c r="B679">
+        <v>100</v>
+      </c>
+      <c r="C679">
+        <v>97</v>
+      </c>
+      <c r="D679">
+        <v>2</v>
+      </c>
+      <c r="E679" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>16</v>
+      </c>
+      <c r="B680">
+        <v>59</v>
+      </c>
+      <c r="C680">
+        <v>36</v>
+      </c>
+      <c r="D680">
+        <v>23</v>
+      </c>
+      <c r="E680" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>15</v>
+      </c>
+      <c r="B681">
+        <v>56</v>
+      </c>
+      <c r="C681">
+        <v>38</v>
+      </c>
+      <c r="D681">
+        <v>17</v>
+      </c>
+      <c r="E681" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>20</v>
+      </c>
+      <c r="B682">
+        <v>55</v>
+      </c>
+      <c r="C682">
+        <v>46</v>
+      </c>
+      <c r="D682">
+        <v>8</v>
+      </c>
+      <c r="E682" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>17</v>
+      </c>
+      <c r="B683">
+        <v>46</v>
+      </c>
+      <c r="C683">
+        <v>44</v>
+      </c>
+      <c r="D683">
+        <v>1</v>
+      </c>
+      <c r="E683" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>26</v>
+      </c>
+      <c r="B684">
+        <v>36</v>
+      </c>
+      <c r="C684">
+        <v>36</v>
+      </c>
+      <c r="D684">
+        <v>0</v>
+      </c>
+      <c r="E684" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>19</v>
+      </c>
+      <c r="B685">
+        <v>30</v>
+      </c>
+      <c r="C685">
+        <v>0</v>
+      </c>
+      <c r="D685">
+        <v>37</v>
+      </c>
+      <c r="E685" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>18</v>
+      </c>
+      <c r="B686">
+        <v>30</v>
+      </c>
+      <c r="C686">
+        <v>7</v>
+      </c>
+      <c r="D686">
+        <v>23</v>
+      </c>
+      <c r="E686" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>52</v>
+      </c>
+      <c r="B687">
+        <v>24</v>
+      </c>
+      <c r="C687">
+        <v>24</v>
+      </c>
+      <c r="D687">
+        <v>0</v>
+      </c>
+      <c r="E687" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>21</v>
+      </c>
+      <c r="B688">
+        <v>22</v>
+      </c>
+      <c r="C688">
+        <v>0</v>
+      </c>
+      <c r="D688">
+        <v>24</v>
+      </c>
+      <c r="E688" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>23</v>
+      </c>
+      <c r="B689">
+        <v>20</v>
+      </c>
+      <c r="C689">
+        <v>6</v>
+      </c>
+      <c r="D689">
+        <v>14</v>
+      </c>
+      <c r="E689" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>22</v>
+      </c>
+      <c r="B690">
+        <v>20</v>
+      </c>
+      <c r="C690">
+        <v>7</v>
+      </c>
+      <c r="D690">
+        <v>13</v>
+      </c>
+      <c r="E690" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>36</v>
+      </c>
+      <c r="B691">
+        <v>18</v>
+      </c>
+      <c r="C691">
+        <v>16</v>
+      </c>
+      <c r="D691">
+        <v>2</v>
+      </c>
+      <c r="E691" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>25</v>
+      </c>
+      <c r="B692">
+        <v>17</v>
+      </c>
+      <c r="C692">
+        <v>12</v>
+      </c>
+      <c r="D692">
+        <v>5</v>
+      </c>
+      <c r="E692" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>24</v>
+      </c>
+      <c r="B693">
+        <v>15</v>
+      </c>
+      <c r="C693">
+        <v>15</v>
+      </c>
+      <c r="D693">
+        <v>0</v>
+      </c>
+      <c r="E693" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>66</v>
+      </c>
+      <c r="B694">
+        <v>11</v>
+      </c>
+      <c r="C694">
+        <v>11</v>
+      </c>
+      <c r="D694">
+        <v>0</v>
+      </c>
+      <c r="E694" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>43</v>
+      </c>
+      <c r="B695">
+        <v>10</v>
+      </c>
+      <c r="C695">
+        <v>7</v>
+      </c>
+      <c r="D695">
+        <v>3</v>
+      </c>
+      <c r="E695" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>63</v>
+      </c>
+      <c r="B696">
+        <v>9</v>
+      </c>
+      <c r="C696">
+        <v>9</v>
+      </c>
+      <c r="D696">
+        <v>0</v>
+      </c>
+      <c r="E696" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>39</v>
+      </c>
+      <c r="B697">
+        <v>9</v>
+      </c>
+      <c r="C697">
+        <v>9</v>
+      </c>
+      <c r="D697">
+        <v>0</v>
+      </c>
+      <c r="E697" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>27</v>
+      </c>
+      <c r="B698">
+        <v>8</v>
+      </c>
+      <c r="C698">
+        <v>8</v>
+      </c>
+      <c r="D698">
+        <v>0</v>
+      </c>
+      <c r="E698" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>37</v>
+      </c>
+      <c r="B699">
+        <v>8</v>
+      </c>
+      <c r="C699">
+        <v>8</v>
+      </c>
+      <c r="D699">
+        <v>0</v>
+      </c>
+      <c r="E699" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>33</v>
+      </c>
+      <c r="B700">
+        <v>8</v>
+      </c>
+      <c r="C700">
+        <v>8</v>
+      </c>
+      <c r="D700">
+        <v>0</v>
+      </c>
+      <c r="E700" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>61</v>
+      </c>
+      <c r="B701">
+        <v>6</v>
+      </c>
+      <c r="C701">
+        <v>6</v>
+      </c>
+      <c r="D701">
+        <v>0</v>
+      </c>
+      <c r="E701" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>32</v>
+      </c>
+      <c r="B702">
+        <v>5</v>
+      </c>
+      <c r="C702">
+        <v>5</v>
+      </c>
+      <c r="D702">
+        <v>0</v>
+      </c>
+      <c r="E702" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>54</v>
+      </c>
+      <c r="B703">
+        <v>5</v>
+      </c>
+      <c r="C703">
+        <v>5</v>
+      </c>
+      <c r="D703">
+        <v>0</v>
+      </c>
+      <c r="E703" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>28</v>
+      </c>
+      <c r="B704">
+        <v>5</v>
+      </c>
+      <c r="C704">
+        <v>1</v>
+      </c>
+      <c r="D704">
+        <v>4</v>
+      </c>
+      <c r="E704" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>31</v>
+      </c>
+      <c r="B705">
+        <v>4</v>
+      </c>
+      <c r="C705">
+        <v>4</v>
+      </c>
+      <c r="D705">
+        <v>0</v>
+      </c>
+      <c r="E705" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>69</v>
+      </c>
+      <c r="B706">
+        <v>4</v>
+      </c>
+      <c r="C706">
+        <v>4</v>
+      </c>
+      <c r="D706">
+        <v>0</v>
+      </c>
+      <c r="E706" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>29</v>
+      </c>
+      <c r="B707">
+        <v>4</v>
+      </c>
+      <c r="C707">
+        <v>4</v>
+      </c>
+      <c r="D707">
+        <v>0</v>
+      </c>
+      <c r="E707" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>64</v>
+      </c>
+      <c r="B708">
+        <v>3</v>
+      </c>
+      <c r="C708">
+        <v>3</v>
+      </c>
+      <c r="D708">
+        <v>0</v>
+      </c>
+      <c r="E708" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>72</v>
+      </c>
+      <c r="B709">
+        <v>3</v>
+      </c>
+      <c r="C709">
+        <v>3</v>
+      </c>
+      <c r="D709">
+        <v>0</v>
+      </c>
+      <c r="E709" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>34</v>
+      </c>
+      <c r="B710">
+        <v>2</v>
+      </c>
+      <c r="C710">
+        <v>0</v>
+      </c>
+      <c r="D710">
+        <v>1</v>
+      </c>
+      <c r="E710" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>41</v>
+      </c>
+      <c r="B711">
+        <v>2</v>
+      </c>
+      <c r="C711">
+        <v>2</v>
+      </c>
+      <c r="D711">
+        <v>0</v>
+      </c>
+      <c r="E711" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>74</v>
+      </c>
+      <c r="B712">
+        <v>2</v>
+      </c>
+      <c r="C712">
+        <v>2</v>
+      </c>
+      <c r="D712">
+        <v>0</v>
+      </c>
+      <c r="E712" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>68</v>
+      </c>
+      <c r="B713">
+        <v>2</v>
+      </c>
+      <c r="C713">
+        <v>2</v>
+      </c>
+      <c r="D713">
+        <v>0</v>
+      </c>
+      <c r="E713" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>35</v>
+      </c>
+      <c r="B714">
+        <v>2</v>
+      </c>
+      <c r="C714">
+        <v>2</v>
+      </c>
+      <c r="D714">
+        <v>0</v>
+      </c>
+      <c r="E714" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>70</v>
+      </c>
+      <c r="B715">
+        <v>2</v>
+      </c>
+      <c r="C715">
+        <v>2</v>
+      </c>
+      <c r="D715">
+        <v>0</v>
+      </c>
+      <c r="E715" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>71</v>
+      </c>
+      <c r="B716">
+        <v>2</v>
+      </c>
+      <c r="C716">
+        <v>2</v>
+      </c>
+      <c r="D716">
+        <v>0</v>
+      </c>
+      <c r="E716" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>65</v>
+      </c>
+      <c r="B717">
+        <v>2</v>
+      </c>
+      <c r="C717">
+        <v>2</v>
+      </c>
+      <c r="D717">
+        <v>0</v>
+      </c>
+      <c r="E717" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>85</v>
+      </c>
+      <c r="B718">
+        <v>2</v>
+      </c>
+      <c r="C718">
+        <v>2</v>
+      </c>
+      <c r="D718">
+        <v>0</v>
+      </c>
+      <c r="E718" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>56</v>
+      </c>
+      <c r="B719">
+        <v>2</v>
+      </c>
+      <c r="C719">
+        <v>2</v>
+      </c>
+      <c r="D719">
+        <v>0</v>
+      </c>
+      <c r="E719" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>80</v>
+      </c>
+      <c r="B720">
+        <v>2</v>
+      </c>
+      <c r="C720">
+        <v>2</v>
+      </c>
+      <c r="D720">
+        <v>0</v>
+      </c>
+      <c r="E720" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>58</v>
+      </c>
+      <c r="B721">
+        <v>2</v>
+      </c>
+      <c r="C721">
+        <v>2</v>
+      </c>
+      <c r="D721">
+        <v>0</v>
+      </c>
+      <c r="E721" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>38</v>
+      </c>
+      <c r="B722">
+        <v>2</v>
+      </c>
+      <c r="C722">
+        <v>2</v>
+      </c>
+      <c r="D722">
+        <v>0</v>
+      </c>
+      <c r="E722" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>73</v>
+      </c>
+      <c r="B723">
+        <v>1</v>
+      </c>
+      <c r="C723">
+        <v>1</v>
+      </c>
+      <c r="D723">
+        <v>0</v>
+      </c>
+      <c r="E723" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>81</v>
+      </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
+      <c r="C724">
+        <v>1</v>
+      </c>
+      <c r="D724">
+        <v>0</v>
+      </c>
+      <c r="E724" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>77</v>
+      </c>
+      <c r="B725">
+        <v>1</v>
+      </c>
+      <c r="C725">
+        <v>1</v>
+      </c>
+      <c r="D725">
+        <v>0</v>
+      </c>
+      <c r="E725" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>40</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+      <c r="C726">
+        <v>1</v>
+      </c>
+      <c r="D726">
+        <v>0</v>
+      </c>
+      <c r="E726" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>86</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+      <c r="C727">
+        <v>1</v>
+      </c>
+      <c r="D727">
+        <v>0</v>
+      </c>
+      <c r="E727" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>42</v>
+      </c>
+      <c r="B728">
+        <v>1</v>
+      </c>
+      <c r="C728">
+        <v>1</v>
+      </c>
+      <c r="D728">
+        <v>0</v>
+      </c>
+      <c r="E728" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>55</v>
+      </c>
+      <c r="B729">
+        <v>1</v>
+      </c>
+      <c r="C729">
+        <v>1</v>
+      </c>
+      <c r="D729">
+        <v>0</v>
+      </c>
+      <c r="E729" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>44</v>
+      </c>
+      <c r="B730">
+        <v>1</v>
+      </c>
+      <c r="C730">
+        <v>1</v>
+      </c>
+      <c r="D730">
+        <v>0</v>
+      </c>
+      <c r="E730" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>45</v>
+      </c>
+      <c r="B731">
+        <v>1</v>
+      </c>
+      <c r="C731">
+        <v>1</v>
+      </c>
+      <c r="D731">
+        <v>0</v>
+      </c>
+      <c r="E731" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>46</v>
+      </c>
+      <c r="B732">
+        <v>1</v>
+      </c>
+      <c r="C732">
+        <v>1</v>
+      </c>
+      <c r="D732">
+        <v>0</v>
+      </c>
+      <c r="E732" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>82</v>
+      </c>
+      <c r="B733">
+        <v>1</v>
+      </c>
+      <c r="C733">
+        <v>1</v>
+      </c>
+      <c r="D733">
+        <v>0</v>
+      </c>
+      <c r="E733" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>47</v>
+      </c>
+      <c r="B734">
+        <v>1</v>
+      </c>
+      <c r="C734">
+        <v>1</v>
+      </c>
+      <c r="D734">
+        <v>0</v>
+      </c>
+      <c r="E734" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>48</v>
+      </c>
+      <c r="B735">
+        <v>1</v>
+      </c>
+      <c r="C735">
+        <v>0</v>
+      </c>
+      <c r="D735">
+        <v>1</v>
+      </c>
+      <c r="E735" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>49</v>
+      </c>
+      <c r="B736">
+        <v>1</v>
+      </c>
+      <c r="C736">
+        <v>0</v>
+      </c>
+      <c r="D736">
+        <v>1</v>
+      </c>
+      <c r="E736" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>50</v>
+      </c>
+      <c r="B737">
+        <v>1</v>
+      </c>
+      <c r="C737">
+        <v>1</v>
+      </c>
+      <c r="D737">
+        <v>0</v>
+      </c>
+      <c r="E737" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>87</v>
+      </c>
+      <c r="B738">
+        <v>1</v>
+      </c>
+      <c r="C738">
+        <v>1</v>
+      </c>
+      <c r="D738">
+        <v>0</v>
+      </c>
+      <c r="E738" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>78</v>
+      </c>
+      <c r="B739">
+        <v>1</v>
+      </c>
+      <c r="C739">
+        <v>1</v>
+      </c>
+      <c r="D739">
+        <v>0</v>
+      </c>
+      <c r="E739" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12047,33 +13249,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
@@ -12093,8 +13295,11 @@
       <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -12134,8 +13339,11 @@
       <c r="M2">
         <v>2210</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -12175,8 +13383,11 @@
       <c r="M3">
         <v>2552</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -12216,8 +13427,11 @@
       <c r="M4">
         <v>1764</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -12257,8 +13471,11 @@
       <c r="M5">
         <v>1710</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -12298,8 +13515,11 @@
       <c r="M6">
         <v>759</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -12339,8 +13559,11 @@
       <c r="M7">
         <v>198</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -12380,8 +13603,11 @@
       <c r="M8">
         <v>395</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -12421,8 +13647,11 @@
       <c r="M9">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -12462,8 +13691,11 @@
       <c r="M10">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -12503,8 +13735,11 @@
       <c r="M11">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -12544,8 +13779,11 @@
       <c r="M12">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -12585,8 +13823,11 @@
       <c r="M13">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -12626,8 +13867,11 @@
       <c r="M14">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -12667,8 +13911,11 @@
       <c r="M15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -12708,8 +13955,11 @@
       <c r="M16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -12749,8 +13999,11 @@
       <c r="M17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -12790,8 +14043,11 @@
       <c r="M18">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -12831,8 +14087,11 @@
       <c r="M19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -12872,8 +14131,11 @@
       <c r="M20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -12913,8 +14175,11 @@
       <c r="M21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -12954,8 +14219,11 @@
       <c r="M22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -12995,8 +14263,11 @@
       <c r="M23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -13036,8 +14307,11 @@
       <c r="M24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -13077,8 +14351,11 @@
       <c r="M25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -13118,8 +14395,11 @@
       <c r="M26">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -13159,8 +14439,11 @@
       <c r="M27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -13200,8 +14483,11 @@
       <c r="M28">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -13241,8 +14527,11 @@
       <c r="M29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -13282,8 +14571,11 @@
       <c r="M30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -13323,8 +14615,11 @@
       <c r="M31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -13364,8 +14659,11 @@
       <c r="M32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -13405,8 +14703,11 @@
       <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -13446,8 +14747,11 @@
       <c r="M34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -13487,8 +14791,11 @@
       <c r="M35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -13528,8 +14835,11 @@
       <c r="M36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -13569,8 +14879,11 @@
       <c r="M37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -13610,8 +14923,11 @@
       <c r="M38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -13651,8 +14967,11 @@
       <c r="M39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -13692,8 +15011,11 @@
       <c r="M40">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -13733,8 +15055,11 @@
       <c r="M41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -13774,8 +15099,11 @@
       <c r="M42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -13815,8 +15143,11 @@
       <c r="M43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -13856,8 +15187,11 @@
       <c r="M44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -13897,8 +15231,11 @@
       <c r="M45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -13938,8 +15275,11 @@
       <c r="M46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -13979,8 +15319,11 @@
       <c r="M47">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -14020,8 +15363,11 @@
       <c r="M48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -14061,8 +15407,11 @@
       <c r="M49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -14102,8 +15451,11 @@
       <c r="M50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -14143,8 +15495,11 @@
       <c r="M51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -14184,8 +15539,11 @@
       <c r="M52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -14225,8 +15583,11 @@
       <c r="M53">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -14266,8 +15627,11 @@
       <c r="M54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -14307,8 +15671,11 @@
       <c r="M55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -14348,8 +15715,11 @@
       <c r="M56">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -14389,8 +15759,11 @@
       <c r="M57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -14430,8 +15803,11 @@
       <c r="M58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -14471,8 +15847,11 @@
       <c r="M59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -14512,8 +15891,11 @@
       <c r="M60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -14553,8 +15935,11 @@
       <c r="M61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -14594,8 +15979,11 @@
       <c r="M62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -14635,8 +16023,11 @@
       <c r="M63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -14676,8 +16067,11 @@
       <c r="M64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -14717,8 +16111,11 @@
       <c r="M65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -14758,8 +16155,11 @@
       <c r="M66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -14799,8 +16199,11 @@
       <c r="M67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -14838,6 +16241,141 @@
         <v>1</v>
       </c>
       <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
         <v>1</v>
       </c>
     </row>
@@ -14848,33 +16386,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
@@ -14894,8 +16432,11 @@
       <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -14935,8 +16476,11 @@
       <c r="M2">
         <v>1685</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -14976,8 +16520,11 @@
       <c r="M3">
         <v>2170</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -15017,8 +16564,11 @@
       <c r="M4">
         <v>1518</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -15058,8 +16608,11 @@
       <c r="M5">
         <v>1649</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -15099,8 +16652,11 @@
       <c r="M6">
         <v>686</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -15140,8 +16696,11 @@
       <c r="M7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -15181,8 +16740,11 @@
       <c r="M8">
         <v>372</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -15222,8 +16784,11 @@
       <c r="M9">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -15263,8 +16828,11 @@
       <c r="M10">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -15304,8 +16872,11 @@
       <c r="M11">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -15345,8 +16916,11 @@
       <c r="M12">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -15386,8 +16960,11 @@
       <c r="M13">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -15427,8 +17004,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -15468,8 +17048,11 @@
       <c r="M15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -15509,8 +17092,11 @@
       <c r="M16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -15550,8 +17136,11 @@
       <c r="M17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -15591,8 +17180,11 @@
       <c r="M18">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -15632,8 +17224,11 @@
       <c r="M19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -15673,8 +17268,11 @@
       <c r="M20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -15714,8 +17312,11 @@
       <c r="M21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -15755,8 +17356,11 @@
       <c r="M22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -15796,8 +17400,11 @@
       <c r="M23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -15837,8 +17444,11 @@
       <c r="M24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -15878,8 +17488,11 @@
       <c r="M25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -15919,8 +17532,11 @@
       <c r="M26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -15960,8 +17576,11 @@
       <c r="M27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -16001,8 +17620,11 @@
       <c r="M28">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -16042,8 +17664,11 @@
       <c r="M29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -16083,8 +17708,11 @@
       <c r="M30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -16124,8 +17752,11 @@
       <c r="M31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -16165,8 +17796,11 @@
       <c r="M32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -16206,8 +17840,11 @@
       <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -16247,8 +17884,11 @@
       <c r="M34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -16288,8 +17928,11 @@
       <c r="M35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -16329,8 +17972,11 @@
       <c r="M36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -16370,8 +18016,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -16411,8 +18060,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -16452,8 +18104,11 @@
       <c r="M39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -16493,8 +18148,11 @@
       <c r="M40">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -16534,8 +18192,11 @@
       <c r="M41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -16575,8 +18236,11 @@
       <c r="M42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -16616,8 +18280,11 @@
       <c r="M43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -16657,8 +18324,11 @@
       <c r="M44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -16698,8 +18368,11 @@
       <c r="M45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -16739,8 +18412,11 @@
       <c r="M46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -16780,8 +18456,11 @@
       <c r="M47">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -16821,8 +18500,11 @@
       <c r="M48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -16862,8 +18544,11 @@
       <c r="M49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -16903,8 +18588,11 @@
       <c r="M50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -16944,8 +18632,11 @@
       <c r="M51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -16985,8 +18676,11 @@
       <c r="M52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -17026,8 +18720,11 @@
       <c r="M53">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -17067,8 +18764,11 @@
       <c r="M54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -17108,8 +18808,11 @@
       <c r="M55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -17149,8 +18852,11 @@
       <c r="M56">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -17190,8 +18896,11 @@
       <c r="M57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -17231,8 +18940,11 @@
       <c r="M58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -17272,8 +18984,11 @@
       <c r="M59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -17313,8 +19028,11 @@
       <c r="M60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -17354,8 +19072,11 @@
       <c r="M61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -17395,8 +19116,11 @@
       <c r="M62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -17436,8 +19160,11 @@
       <c r="M63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -17477,8 +19204,11 @@
       <c r="M64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -17518,8 +19248,11 @@
       <c r="M65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -17559,8 +19292,11 @@
       <c r="M66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -17600,8 +19336,11 @@
       <c r="M67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -17639,6 +19378,141 @@
         <v>1</v>
       </c>
       <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
         <v>1</v>
       </c>
     </row>
@@ -17649,33 +19523,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
@@ -17695,8 +19571,11 @@
       <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -17736,8 +19615,11 @@
       <c r="M2">
         <v>521</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -17777,8 +19659,11 @@
       <c r="M3">
         <v>345</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -17818,8 +19703,11 @@
       <c r="M4">
         <v>228</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -17859,8 +19747,11 @@
       <c r="M5">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -17900,8 +19791,11 @@
       <c r="M6">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -17941,8 +19835,11 @@
       <c r="M7">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -17982,8 +19879,11 @@
       <c r="M8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -18023,8 +19923,11 @@
       <c r="M9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -18064,8 +19967,11 @@
       <c r="M10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -18105,8 +20011,11 @@
       <c r="M11">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -18146,8 +20055,11 @@
       <c r="M12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -18187,8 +20099,11 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -18228,8 +20143,11 @@
       <c r="M14">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -18269,8 +20187,11 @@
       <c r="M15">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -18310,8 +20231,11 @@
       <c r="M16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -18351,8 +20275,11 @@
       <c r="M17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -18392,8 +20319,11 @@
       <c r="M18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -18433,8 +20363,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -18474,8 +20407,11 @@
       <c r="M20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -18515,8 +20451,11 @@
       <c r="M21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -18556,8 +20495,11 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -18597,8 +20539,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -18638,8 +20583,11 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -18679,8 +20627,11 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -18720,8 +20671,11 @@
       <c r="M26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -18761,8 +20715,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -18802,8 +20759,11 @@
       <c r="M28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -18843,8 +20803,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -18884,8 +20847,11 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -18925,8 +20891,11 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -18966,8 +20935,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -19007,8 +20979,11 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -19048,8 +21023,11 @@
       <c r="M34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -19089,8 +21067,11 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -19130,8 +21111,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -19171,8 +21155,11 @@
       <c r="M37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -19212,8 +21199,11 @@
       <c r="M38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -19253,8 +21243,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -19294,8 +21287,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -19335,8 +21331,11 @@
       <c r="M41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -19374,6 +21373,9 @@
         <v>0</v>
       </c>
       <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
         <v>0</v>
       </c>
     </row>
@@ -19384,35 +21386,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
@@ -19432,8 +21434,11 @@
       <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -19473,8 +21478,11 @@
       <c r="M2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -19514,8 +21522,11 @@
       <c r="M3">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -19555,8 +21566,11 @@
       <c r="M4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -19596,8 +21610,11 @@
       <c r="M5">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -19637,8 +21654,11 @@
       <c r="M6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -19678,8 +21698,11 @@
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -19719,8 +21742,11 @@
       <c r="M8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -19760,8 +21786,11 @@
       <c r="M9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -19801,8 +21830,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -19842,8 +21874,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -19883,8 +21918,11 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -19924,8 +21962,11 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -19965,8 +22006,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -20006,8 +22050,11 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -20047,8 +22094,11 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -20088,8 +22138,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -20129,8 +22182,11 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -20170,8 +22226,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -20211,8 +22270,11 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -20252,8 +22314,11 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -20293,8 +22358,11 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -20334,8 +22402,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -20375,8 +22446,11 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -20416,8 +22490,11 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -20457,8 +22534,11 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -20498,8 +22578,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -20539,8 +22622,11 @@
       <c r="M28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -20580,8 +22666,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -20621,8 +22710,11 @@
       <c r="M30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -20662,8 +22754,11 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -20703,8 +22798,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -20744,8 +22842,11 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -20785,8 +22886,11 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -20826,8 +22930,11 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -20867,8 +22974,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -20908,8 +23018,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -20949,8 +23062,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -20990,8 +23106,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -21031,8 +23150,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -21072,8 +23194,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -21113,8 +23238,11 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -21154,8 +23282,11 @@
       <c r="M43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -21195,8 +23326,11 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -21236,8 +23370,11 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -21277,8 +23414,11 @@
       <c r="M46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -21318,8 +23458,11 @@
       <c r="M47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -21359,8 +23502,11 @@
       <c r="M48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -21400,8 +23546,11 @@
       <c r="M49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -21441,8 +23590,11 @@
       <c r="M50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -21482,8 +23634,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -21523,8 +23678,11 @@
       <c r="M52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -21564,8 +23722,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -21605,8 +23766,11 @@
       <c r="M54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -21646,8 +23810,11 @@
       <c r="M55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -21687,8 +23854,11 @@
       <c r="M56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -21728,8 +23898,11 @@
       <c r="M57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -21769,8 +23942,11 @@
       <c r="M58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -21810,8 +23986,11 @@
       <c r="M59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -21851,8 +24030,11 @@
       <c r="M60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -21892,8 +24074,11 @@
       <c r="M61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -21933,8 +24118,11 @@
       <c r="M62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -21974,8 +24162,11 @@
       <c r="M63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -22015,8 +24206,11 @@
       <c r="M64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -22056,8 +24250,11 @@
       <c r="M65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -22097,8 +24294,11 @@
       <c r="M66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -22138,8 +24338,11 @@
       <c r="M67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -22177,6 +24380,141 @@
         <v>0</v>
       </c>
       <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
         <v>0</v>
       </c>
     </row>
@@ -22187,35 +24525,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
@@ -22235,8 +24571,11 @@
       <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -22276,8 +24615,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -22317,8 +24659,11 @@
       <c r="M3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -22358,8 +24703,11 @@
       <c r="M4">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -22399,8 +24747,11 @@
       <c r="M5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -22440,8 +24791,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -22481,8 +24835,11 @@
       <c r="M7">
         <v>402</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -22522,8 +24879,11 @@
       <c r="M8">
         <v>186</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -22563,8 +24923,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -22604,8 +24967,11 @@
       <c r="M10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -22645,8 +25011,11 @@
       <c r="M11">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -22686,8 +25055,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -22727,8 +25099,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -22768,8 +25143,11 @@
       <c r="M14">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -22809,8 +25187,11 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -22850,8 +25231,11 @@
       <c r="M16">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -22891,8 +25275,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -22932,8 +25319,11 @@
       <c r="M18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -22973,8 +25363,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -23014,8 +25407,11 @@
       <c r="M20">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -23055,8 +25451,11 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -23096,8 +25495,11 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -23137,8 +25539,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -23178,8 +25583,11 @@
       <c r="M24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -23219,8 +25627,11 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -23260,8 +25671,11 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -23301,8 +25715,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -23342,8 +25759,11 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -23383,8 +25803,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -23424,8 +25847,11 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -23465,8 +25891,11 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -23506,8 +25935,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -23547,8 +25979,11 @@
       <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -23588,8 +26023,11 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -23629,8 +26067,11 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -23670,8 +26111,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -23711,8 +26155,11 @@
       <c r="M37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -23752,8 +26199,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -23793,8 +26243,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -23834,8 +26287,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -23875,8 +26331,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -23916,8 +26375,11 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -23957,8 +26419,11 @@
       <c r="M43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -23998,8 +26463,11 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -24039,8 +26507,11 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -24080,8 +26551,11 @@
       <c r="M46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -24118,8 +26592,11 @@
       <c r="M47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -24153,8 +26630,11 @@
       <c r="M48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -24188,8 +26668,11 @@
       <c r="M49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -24223,8 +26706,11 @@
       <c r="M50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -24255,8 +26741,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -24281,8 +26770,11 @@
       <c r="M52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -24304,8 +26796,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -24327,8 +26822,11 @@
       <c r="M54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -24350,8 +26848,11 @@
       <c r="M55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -24373,8 +26874,11 @@
       <c r="M56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -24393,8 +26897,11 @@
       <c r="M57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -24413,8 +26920,11 @@
       <c r="M58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -24433,8 +26943,11 @@
       <c r="M59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -24453,8 +26966,11 @@
       <c r="M60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -24473,8 +26989,11 @@
       <c r="M61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -24493,8 +27012,11 @@
       <c r="M62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -24513,8 +27035,11 @@
       <c r="M63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -24527,8 +27052,11 @@
       <c r="M64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -24541,8 +27069,11 @@
       <c r="M65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -24552,8 +27083,11 @@
       <c r="M66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -24563,8 +27097,11 @@
       <c r="M67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -24573,6 +27110,33 @@
       </c>
       <c r="M68">
         <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -24582,35 +27146,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
@@ -24630,8 +27192,11 @@
       <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -24671,8 +27236,11 @@
       <c r="M2">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -24712,8 +27280,11 @@
       <c r="M3">
         <v>397</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -24753,8 +27324,11 @@
       <c r="M4">
         <v>178</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -24794,8 +27368,11 @@
       <c r="M5">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -24835,8 +27412,11 @@
       <c r="M6">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -24876,8 +27456,11 @@
       <c r="M7">
         <v>-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -24917,8 +27500,11 @@
       <c r="M8">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -24958,8 +27544,11 @@
       <c r="M9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -24999,8 +27588,11 @@
       <c r="M10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -25040,8 +27632,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -25081,8 +27676,11 @@
       <c r="M12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -25122,8 +27720,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -25163,8 +27764,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -25204,8 +27808,11 @@
       <c r="M15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -25245,8 +27852,11 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -25286,8 +27896,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -25327,8 +27940,11 @@
       <c r="M18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -25368,8 +27984,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -25409,8 +28028,11 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -25450,8 +28072,11 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -25491,8 +28116,11 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -25532,8 +28160,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -25573,8 +28204,11 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -25614,8 +28248,11 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -25655,8 +28292,11 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -25696,8 +28336,11 @@
       <c r="M27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -25737,8 +28380,11 @@
       <c r="M28">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -25778,8 +28424,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -25819,8 +28468,11 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -25860,8 +28512,11 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -25901,8 +28556,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -25942,8 +28600,11 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -25983,8 +28644,11 @@
       <c r="M34">
         <v>-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -26024,8 +28688,11 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -26065,8 +28732,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -26106,8 +28776,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -26147,8 +28820,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -26188,8 +28864,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -26229,8 +28908,11 @@
       <c r="M40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -26270,8 +28952,11 @@
       <c r="M41">
         <v>-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -26311,8 +28996,11 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -26352,8 +29040,11 @@
       <c r="M43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -26393,8 +29084,11 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -26434,8 +29128,11 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -26475,8 +29172,11 @@
       <c r="M46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -26513,8 +29213,11 @@
       <c r="M47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -26548,8 +29251,11 @@
       <c r="M48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -26583,8 +29289,11 @@
       <c r="M49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -26618,8 +29327,11 @@
       <c r="M50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -26650,8 +29362,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -26676,8 +29391,11 @@
       <c r="M52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -26699,8 +29417,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -26722,8 +29443,11 @@
       <c r="M54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -26745,8 +29469,11 @@
       <c r="M55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -26768,8 +29495,11 @@
       <c r="M56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -26788,8 +29518,11 @@
       <c r="M57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -26808,8 +29541,11 @@
       <c r="M58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -26828,8 +29564,11 @@
       <c r="M59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -26848,8 +29587,11 @@
       <c r="M60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -26868,8 +29610,11 @@
       <c r="M61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -26888,8 +29633,11 @@
       <c r="M62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -26908,8 +29656,11 @@
       <c r="M63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -26922,8 +29673,11 @@
       <c r="M64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -26936,8 +29690,11 @@
       <c r="M65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -26947,8 +29704,11 @@
       <c r="M66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -26958,8 +29718,11 @@
       <c r="M67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -26968,6 +29731,33 @@
       </c>
       <c r="M68">
         <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -26977,33 +29767,33 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
@@ -27023,8 +29813,11 @@
       <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -27064,8 +29857,11 @@
       <c r="M2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -27105,8 +29901,11 @@
       <c r="M3">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -27146,8 +29945,11 @@
       <c r="M4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -27187,8 +29989,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -27228,8 +30033,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -27269,8 +30077,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -27310,8 +30121,11 @@
       <c r="M8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -27351,8 +30165,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -27392,8 +30209,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -27433,8 +30253,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -27474,8 +30297,11 @@
       <c r="M12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -27515,8 +30341,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -27556,8 +30385,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -27597,8 +30429,11 @@
       <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -27638,8 +30473,11 @@
       <c r="M16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -27679,8 +30517,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -27720,8 +30561,11 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -27761,8 +30605,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -27802,8 +30649,11 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -27843,8 +30693,11 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -27884,8 +30737,11 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -27925,8 +30781,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -27966,8 +30825,11 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -28007,8 +30869,11 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -28048,8 +30913,11 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -28089,8 +30957,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -28130,8 +31001,11 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -28171,8 +31045,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -28212,8 +31089,11 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -28253,8 +31133,11 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -28294,8 +31177,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -28335,8 +31221,11 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -28376,8 +31265,11 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -28417,8 +31309,11 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -28458,8 +31353,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -28499,8 +31397,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -28540,8 +31441,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -28581,8 +31485,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -28622,8 +31529,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -28663,8 +31573,11 @@
       <c r="M41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -28702,6 +31615,9 @@
         <v>0</v>
       </c>
       <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
         <v>0</v>
       </c>
     </row>
@@ -28712,35 +31628,35 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>62</v>
@@ -28760,8 +31676,11 @@
       <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -28801,8 +31720,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -28842,8 +31764,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -28883,8 +31808,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -28924,8 +31852,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -28965,8 +31896,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -29006,8 +31940,11 @@
       <c r="M7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -29047,8 +31984,11 @@
       <c r="M8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -29088,8 +32028,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -29129,8 +32072,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -29170,8 +32116,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -29211,8 +32160,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -29252,8 +32204,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -29293,8 +32248,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -29334,8 +32292,11 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -29375,8 +32336,11 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -29416,8 +32380,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -29457,8 +32424,11 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -29498,8 +32468,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -29539,8 +32512,11 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -29580,8 +32556,11 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -29621,8 +32600,11 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -29662,8 +32644,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -29703,8 +32688,11 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -29744,8 +32732,11 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -29785,8 +32776,11 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -29826,8 +32820,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -29867,8 +32864,11 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -29908,8 +32908,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -29949,8 +32952,11 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -29990,8 +32996,11 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -30031,8 +33040,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -30072,8 +33084,11 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -30113,8 +33128,11 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -30154,8 +33172,11 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -30195,8 +33216,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -30236,8 +33260,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -30277,8 +33304,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -30318,8 +33348,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -30359,8 +33392,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -30400,8 +33436,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -30441,8 +33480,11 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -30482,8 +33524,11 @@
       <c r="M43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -30523,8 +33568,11 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -30564,8 +33612,11 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -30605,8 +33656,11 @@
       <c r="M46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -30643,8 +33697,11 @@
       <c r="M47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -30678,8 +33735,11 @@
       <c r="M48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -30713,8 +33773,11 @@
       <c r="M49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -30748,8 +33811,11 @@
       <c r="M50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -30780,8 +33846,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -30806,8 +33875,11 @@
       <c r="M52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -30829,8 +33901,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -30852,8 +33927,11 @@
       <c r="M54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -30875,8 +33953,11 @@
       <c r="M55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -30898,8 +33979,11 @@
       <c r="M56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -30918,8 +34002,11 @@
       <c r="M57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -30938,8 +34025,11 @@
       <c r="M58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -30958,8 +34048,11 @@
       <c r="M59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -30978,8 +34071,11 @@
       <c r="M60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -30998,8 +34094,11 @@
       <c r="M61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -31018,8 +34117,11 @@
       <c r="M62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -31038,8 +34140,11 @@
       <c r="M63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -31052,8 +34157,11 @@
       <c r="M64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -31066,8 +34174,11 @@
       <c r="M65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -31077,8 +34188,11 @@
       <c r="M66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -31088,8 +34202,11 @@
       <c r="M67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -31097,6 +34214,33 @@
         <v>0</v>
       </c>
       <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="N71">
         <v>0</v>
       </c>
     </row>

--- a/ksa_covid19.xlsx
+++ b/ksa_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalawami/Desktop/Learn Data Science/Projects/Saudi-Arabia-COVID-19-Dashboard-Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1EC198-60E8-D94A-82F7-A23AE6045471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9B5DDF-BBBD-E741-9F3C-0656B8FF1846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="30960" windowHeight="16300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Changes" sheetId="1" r:id="rId1"/>
@@ -41712,8 +41712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView topLeftCell="N92" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43551,7 +43551,7 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -60927,8 +60927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView topLeftCell="L22" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -63174,7 +63174,7 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
